--- a/Package_Summary.xlsx
+++ b/Package_Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - University of Cincinnati\GitHub\SayakChakraborty\Women in the Workplace Analysis in R\WomenWorkplace_Analysis_R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\OneDrive\Documents\GitHub\NewYork_AirBnB_Analysis_and_Modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{34A70631-812A-4BA0-96FB-23E324780D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{892D68F2-5466-4037-A1CE-C61774549E72}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{34A70631-812A-4BA0-96FB-23E324780D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F203D5CD-9D2B-4E6C-A5C7-E77E6137E68D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{78C35055-45FA-4991-A297-7EA8964DAF94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{78C35055-45FA-4991-A297-7EA8964DAF94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>Package</t>
   </si>
@@ -123,13 +123,112 @@
   </si>
   <si>
     <t>RColorBrewer is an R package that allows users to create colourful graphs with pre-made color palettes that visualize data in a clear and distinguishable manner</t>
+  </si>
+  <si>
+    <t>library(readr)</t>
+  </si>
+  <si>
+    <t>library(choroplethr)</t>
+  </si>
+  <si>
+    <t>library(choroplethrMaps)</t>
+  </si>
+  <si>
+    <t>library(GGally)</t>
+  </si>
+  <si>
+    <t>library(zoo)</t>
+  </si>
+  <si>
+    <t>library(ggmap)</t>
+  </si>
+  <si>
+    <t>library(stringr)</t>
+  </si>
+  <si>
+    <t>library(gridExtra)</t>
+  </si>
+  <si>
+    <t>library(caret)</t>
+  </si>
+  <si>
+    <t>library(treemap)</t>
+  </si>
+  <si>
+    <t>library(psych)</t>
+  </si>
+  <si>
+    <t>library(DAAG)</t>
+  </si>
+  <si>
+    <t>library(leaps)</t>
+  </si>
+  <si>
+    <t>library(corrplot)</t>
+  </si>
+  <si>
+    <t>library(glmnet)</t>
+  </si>
+  <si>
+    <t>Lubridate is an R package that makes it easier to work with dates and times. </t>
+  </si>
+  <si>
+    <t>The readxl package makes it easy to get data out of Excel and into R.</t>
+  </si>
+  <si>
+    <t>The goal of readr is to provide a fast and friendly way to read rectangular data (like csv, tsv, and fwf). </t>
+  </si>
+  <si>
+    <t>Simplify the Creation of Choropleth Maps in R</t>
+  </si>
+  <si>
+    <t>choroplethrMaps is an R package that contains 3 maps used by the choroplethr package.</t>
+  </si>
+  <si>
+    <t>ggplot2 is a plotting system based on the grammar of graphics.</t>
+  </si>
+  <si>
+    <t>S3 Infrastructure for Regular and Irregular Time Series (Z's Ordered Observations)</t>
+  </si>
+  <si>
+    <t>The scales packages provides the internal scaling infrastructure used by ggplot2, and gives you tools to override the default breaks, labels, transformations and palettes.</t>
+  </si>
+  <si>
+    <t>A collection of functions to visualize spatial data and models on top of static maps from various online sources (e.g Google Maps and Stamen Maps).</t>
+  </si>
+  <si>
+    <t>A consistent, simple and easy to use set of wrappers around the fantastic 'stringi' package.</t>
+  </si>
+  <si>
+    <t>Provides a number of user-level functions to work with "grid" graphics, notably to arrange multiple grid-based plots on a page, and draw tables.</t>
+  </si>
+  <si>
+    <t>The caret package (short for Classification And REgression Training) contains functions to streamline the model training process for complex regression and classification problems.</t>
+  </si>
+  <si>
+    <t>A treemap is a space-filling visualization of hierarchical structures. This package offers great flexibility to draw treemaps.</t>
+  </si>
+  <si>
+    <t>A general purpose toolbox for personality, psychometric theory and experimental psychology.</t>
+  </si>
+  <si>
+    <t>Data Analysis and Graphics Data and Functions</t>
+  </si>
+  <si>
+    <t>Regression subset selection, including exhaustive search.</t>
+  </si>
+  <si>
+    <t>The corrplot package is a graphical display of a correlation matrix, confidence interval</t>
+  </si>
+  <si>
+    <t>Extremely efficient procedures for fitting the entire lasso or elastic-net regularization path for linear regression, logistic and multinomial regression models, Poisson regression and the Cox model.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,16 +243,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,20 +274,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,137 +622,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04AB2E8-AEAA-40FB-B2A5-A7D3E203FB32}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="137" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="179.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
